--- a/URLconf.xlsx
+++ b/URLconf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cyclops-THSS/Documents/2016Summer/程序设计实训/WorkingEnv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cyclops-THSS/Documents/2016Summer/程序设计实训/WorkingEnv/TGou/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>天狗URL配置说明 ver 1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,15 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view_shop_orders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看店内所有订单
-或某一日期之后订单(after)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +294,6 @@
   </si>
   <si>
     <t>view_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop/order?after=2333.23.33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,10 +666,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -978,640 +965,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>44</v>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>105</v>
+      <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>64</v>
+      <c r="E31" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>136</v>
+      <c r="E35" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="A38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>47</v>
+      <c r="E40" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URLconf.xlsx
+++ b/URLconf.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
   <si>
     <t>天狗URL配置说明 ver 1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,27 +397,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>product/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有商品，搜索入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有店铺，搜索入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/search?q=blablabla</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,6 +571,10 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/?q=blablabla</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1071,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1141,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,7 +1294,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -1324,7 +1308,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>84</v>
@@ -1358,7 +1342,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>92</v>
@@ -1367,221 +1351,204 @@
         <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URLconf.xlsx
+++ b/URLconf.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>天狗URL配置说明 ver 1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,14 +210,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop/search?q=blablabla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search_shop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1045,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1071,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -1125,21 +1117,21 @@
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -1147,408 +1139,391 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>126</v>
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/URLconf.xlsx
+++ b/URLconf.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cyclops-THSS/Documents/2016Summer/程序设计实训/WorkingEnv/TGou/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiang/TGou2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -65,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accounts/profile/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>edit_profile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>edit_cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,10 +275,6 @@
   </si>
   <si>
     <t>view_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order/?after=2333.23.33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,6 +552,18 @@
   </si>
   <si>
     <t>product/?q=blablabla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts/profile/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order/?after=2333.23.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_cart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,12 +960,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -989,63 +986,63 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1054,107 +1051,107 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1163,41 +1160,41 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1206,109 +1203,109 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1317,75 +1314,75 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1394,58 +1391,58 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1454,24 +1451,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1480,50 +1477,50 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
